--- a/data/trans_dic/P79$recibos_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P79$recibos_2023-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007995426185208035</v>
+        <v>0.006193363467750171</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.006216092293589597</v>
+        <v>0.00504580091550913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008982436191212872</v>
+        <v>0.008298415255200805</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05850696062153812</v>
+        <v>0.0534710761174047</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05788070399711225</v>
+        <v>0.05723290124653986</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04149145058843252</v>
+        <v>0.03682234261285267</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.04181014740862295</v>
+        <v>0.04181014740862294</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04620038693952002</v>
+        <v>0.04620038693952003</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04403656698254715</v>
+        <v>0.04403656698254714</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02463019899960456</v>
+        <v>0.02442864871482957</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03146319624088308</v>
+        <v>0.03124133064637367</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0323665719983325</v>
+        <v>0.03272484446925349</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06601344155075582</v>
+        <v>0.06741435875376948</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06538999094183755</v>
+        <v>0.06676529740998519</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05883537423346021</v>
+        <v>0.05903973960663732</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.03047836429885781</v>
+        <v>0.0304783642988578</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.05520689706430574</v>
+        <v>0.05520689706430576</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.04341969935725488</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0150921189018307</v>
+        <v>0.01475652468153952</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03709845608443786</v>
+        <v>0.03409278542842886</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03056057499878909</v>
+        <v>0.03040416276836324</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05739952496447865</v>
+        <v>0.05756121154168953</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08365037307010764</v>
+        <v>0.08108187647335435</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06063202267084775</v>
+        <v>0.0626872297982007</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03118683906565556</v>
+        <v>0.03178365858936414</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04492121292293872</v>
+        <v>0.04515626847430515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04435467212219812</v>
+        <v>0.04531610858451856</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1012687008570903</v>
+        <v>0.1067011849636468</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1046897506331538</v>
+        <v>0.101221144718654</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08824526873841146</v>
+        <v>0.09105199167697238</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.005616610757611742</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.009565130269707671</v>
+        <v>0.009565130269707669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.007694763795640719</v>
+        <v>0.00769476379564072</v>
       </c>
     </row>
     <row r="17">
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00347694566863525</v>
+        <v>0.003557096785946873</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003197387422183137</v>
+        <v>0.00310302974987006</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01736167627850603</v>
+        <v>0.01984808399666932</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02057601312638968</v>
+        <v>0.01927033186358018</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01504271878752426</v>
+        <v>0.01488646374830272</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02669514742041577</v>
+        <v>0.02539690918500558</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03221621260435995</v>
+        <v>0.03316418600763715</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03433761751405925</v>
+        <v>0.03579929812198293</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08030604921900485</v>
+        <v>0.07916930896010538</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08720092118806053</v>
+        <v>0.08725499363560146</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0712179216972231</v>
+        <v>0.07270278559520185</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.06209899937947861</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.04560347767984289</v>
+        <v>0.0456034776798429</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0172180079820785</v>
+        <v>0.01660956891237214</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04627900285099418</v>
+        <v>0.04689755786138482</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03561315207640683</v>
+        <v>0.03496325503490458</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04479309217810942</v>
+        <v>0.04419110853230208</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0825158448929927</v>
+        <v>0.08432690998473912</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05872223425407242</v>
+        <v>0.05873138529205214</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.2693693915077837</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.2651931289714279</v>
+        <v>0.265193128971428</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2310445012047158</v>
+        <v>0.2299923062144852</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2412681350604385</v>
+        <v>0.241828956965493</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2442755277381725</v>
+        <v>0.2435613125547876</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2964891824225455</v>
+        <v>0.2951902692136615</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2999573842437307</v>
+        <v>0.2971566998840972</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2859818836217765</v>
+        <v>0.2851484279825316</v>
       </c>
     </row>
     <row r="28">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.08585336246500291</v>
+        <v>0.0858533624650029</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.09829051674536146</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.09222982829047145</v>
+        <v>0.09222982829047144</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.07576401539497515</v>
+        <v>0.07548441360341041</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08907230973986807</v>
+        <v>0.08975434944558659</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.08588693945878557</v>
+        <v>0.08562504356242095</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0960666752882726</v>
+        <v>0.09628310566691653</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1071413780779731</v>
+        <v>0.1088401850974085</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.09956896238115899</v>
+        <v>0.09949136829577607</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2477</v>
+        <v>1918</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1921</v>
+        <v>1559</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5558</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18124</v>
+        <v>16564</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17887</v>
+        <v>17687</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25675</v>
+        <v>22786</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12759</v>
+        <v>12655</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16771</v>
+        <v>16652</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>34019</v>
+        <v>34396</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>34197</v>
+        <v>34923</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>34854</v>
+        <v>35587</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>61839</v>
+        <v>62054</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4712</v>
+        <v>4607</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12716</v>
+        <v>11686</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20016</v>
+        <v>19914</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17920</v>
+        <v>17971</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28673</v>
+        <v>27792</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>39712</v>
+        <v>41058</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11009</v>
+        <v>11219</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17707</v>
+        <v>17800</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>33141</v>
+        <v>33859</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35747</v>
+        <v>37665</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>41268</v>
+        <v>39900</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>65935</v>
+        <v>68032</v>
       </c>
     </row>
     <row r="20">
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1363</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3506</v>
+        <v>4008</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4617</v>
+        <v>4324</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6413</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7073</v>
+        <v>6729</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8392</v>
+        <v>8639</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>18042</v>
+        <v>18810</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21277</v>
+        <v>20976</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22715</v>
+        <v>22729</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>37421</v>
+        <v>38201</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>11716</v>
+        <v>11302</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>33974</v>
+        <v>34428</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>50377</v>
+        <v>49457</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>30479</v>
+        <v>30069</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>60576</v>
+        <v>61905</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>83066</v>
+        <v>83079</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>180326</v>
+        <v>179505</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>193266</v>
+        <v>193715</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>386328</v>
+        <v>385198</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>231405</v>
+        <v>230391</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>240278</v>
+        <v>238035</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>452287</v>
+        <v>450969</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>259175</v>
+        <v>258219</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>320576</v>
+        <v>323031</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>602915</v>
+        <v>601077</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>328627</v>
+        <v>329367</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>385607</v>
+        <v>391722</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>698961</v>
+        <v>698417</v>
       </c>
     </row>
     <row r="40">
